--- a/data/baidu.xlsx
+++ b/data/baidu.xlsx
@@ -1,30 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujunmin/files/python/selfPractise/Test_framework/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7300" yWindow="5120" windowWidth="18500" windowHeight="11860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Python selenium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>selenium 灰蓝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python selenium</t>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -36,13 +61,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,12 +155,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -165,12 +190,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -374,27 +399,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
